--- a/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
+++ b/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{5B49BB86-9C1D-4D26-8CD1-DE60292ECC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5606E8A-EA9E-4E9A-9CEA-E5623BF3FB84}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{5B49BB86-9C1D-4D26-8CD1-DE60292ECC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0098C23E-E193-479D-8ADC-6EC425AD2E47}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="870" windowWidth="10965" windowHeight="9930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -74,12 +74,6 @@
     <t>identified gender (male/female/other)</t>
   </si>
   <si>
-    <t>Hair color</t>
-  </si>
-  <si>
-    <t>Hair count</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -102,6 +96,12 @@
   </si>
   <si>
     <t>black/brown/blonde/ginger</t>
+  </si>
+  <si>
+    <t>Haircount</t>
+  </si>
+  <si>
+    <t>Haircolor</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,10 +450,10 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>100000</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>95000</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
         <v>130000</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>120000</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -538,7 +538,7 @@
         <v>150000</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>100000</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>90000</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>110000</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>125000</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>150000</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>140000</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>120000</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>135000</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>90000</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -701,7 +701,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,24 +757,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
